--- a/기획자료/Quest.xlsx
+++ b/기획자료/Quest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\담비\Desktop\Dot-Breeder\기획자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC75ED9-A8EA-4560-B94B-28804F3923C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B77274-024B-4F8E-8590-D0A11FFAE8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23385" yWindow="2925" windowWidth="28515" windowHeight="20955" xr2:uid="{9B7D5D62-4D5E-4A94-AA4C-3C16AB3D1AB1}"/>
+    <workbookView xWindow="13200" yWindow="45" windowWidth="25200" windowHeight="20955" xr2:uid="{9B7D5D62-4D5E-4A94-AA4C-3C16AB3D1AB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -206,6 +206,10 @@
   </si>
   <si>
     <t>자원을 채집하여 픽셀조각을 색깔별로 10개씩 모아 망가진 조합기로 돌아가자.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">말풍선: </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -668,7 +672,7 @@
   <dimension ref="B1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -797,6 +801,9 @@
       <c r="H5" t="s">
         <v>41</v>
       </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
       <c r="P5" s="5" t="s">
         <v>19</v>
       </c>

--- a/기획자료/Quest.xlsx
+++ b/기획자료/Quest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\담비\Desktop\Dot-Breeder\기획자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B77274-024B-4F8E-8590-D0A11FFAE8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008E30A8-989A-4453-AAAF-3D1990BEE5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13200" yWindow="45" windowWidth="25200" windowHeight="20955" xr2:uid="{9B7D5D62-4D5E-4A94-AA4C-3C16AB3D1AB1}"/>
+    <workbookView xWindow="13530" yWindow="405" windowWidth="24225" windowHeight="17805" xr2:uid="{9B7D5D62-4D5E-4A94-AA4C-3C16AB3D1AB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -672,7 +672,7 @@
   <dimension ref="B1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
